--- a/public/ExamplesImportacion/Dpagos.xlsx
+++ b/public/ExamplesImportacion/Dpagos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\illapaDesig\illapaApi\public\ExamplesImportacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DFD07-2259-4CBC-87D1-06E67D67CEB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365DD9AF-22B9-4F47-8314-9115204A5FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
   <si>
     <t>BOL</t>
   </si>
@@ -42,9 +42,6 @@
     <t>DNI</t>
   </si>
   <si>
-    <t>RUC</t>
-  </si>
-  <si>
     <t>EFE</t>
   </si>
   <si>
@@ -72,7 +69,7 @@
     <t>FECHAPAGO(DATETIME)</t>
   </si>
   <si>
-    <t>BCO</t>
+    <t>LET</t>
   </si>
 </sst>
 </file>
@@ -139,14 +136,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Comma" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -464,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2BAD85-7FA0-4292-B5A7-AE54433724C7}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C18" sqref="C13:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,28 +480,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -513,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>20230014</v>
+        <v>20230001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -521,173 +517,485 @@
       <c r="D2" s="2">
         <v>3001</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5">
-        <v>40</v>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
       </c>
       <c r="G2" s="2">
+        <v>20190331</v>
+      </c>
+      <c r="H2" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20230001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
         <v>20190430</v>
       </c>
-      <c r="H2" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>20230019</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20230001</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
-        <v>3001</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>54</v>
-      </c>
-      <c r="G3" s="5">
-        <v>20190630</v>
-      </c>
-      <c r="H3" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>20230019</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3001</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>55</v>
-      </c>
-      <c r="G4" s="5">
-        <v>20190730</v>
-      </c>
-      <c r="H4" s="6">
-        <v>700</v>
+      <c r="D4" s="2">
+        <v>5001</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20190530</v>
+      </c>
+      <c r="H4" s="3">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>20408000001</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>20230001</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>3001</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5">
-        <v>100</v>
+        <v>6001</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
       </c>
       <c r="G5" s="2">
-        <v>20190425</v>
+        <v>20190630</v>
       </c>
       <c r="H5" s="3">
-        <v>4000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>20408000001</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>20230001</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5">
-        <v>101</v>
+        <v>7001</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
       </c>
       <c r="G6" s="2">
-        <v>20190625</v>
+        <v>20190730</v>
       </c>
       <c r="H6" s="3">
-        <v>6000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20408000001</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>20230002</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>3002</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5">
-        <v>102</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20190825</v>
-      </c>
-      <c r="H7" s="3">
-        <v>8000</v>
+      <c r="D7">
+        <v>3004</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>20190331</v>
+      </c>
+      <c r="H7" s="5">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
-        <v>20408000004</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>20230002</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
-        <v>3002</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8">
+        <v>4004</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>20190430</v>
+      </c>
+      <c r="H8" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>20230002</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5004</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>20190530</v>
+      </c>
+      <c r="H9" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>20230002</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6004</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>20190630</v>
+      </c>
+      <c r="H10" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>20230002</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6004</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>20190630</v>
+      </c>
+      <c r="H11" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20230006</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3005</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20190331</v>
+      </c>
+      <c r="H12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20230006</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4005</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20190430</v>
+      </c>
+      <c r="H13" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20230006</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5005</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
         <v>13</v>
       </c>
-      <c r="F8" s="5">
-        <v>103</v>
-      </c>
-      <c r="G8" s="5">
-        <v>20190425</v>
-      </c>
-      <c r="H8" s="6">
-        <v>4000</v>
+      <c r="G14" s="2">
+        <v>20190530</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20230006</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5005</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20190530</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20230006</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5005</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>20190530</v>
+      </c>
+      <c r="H16" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>20230008</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>3010</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>20190331</v>
+      </c>
+      <c r="H17" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>20230008</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>4010</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>20190430</v>
+      </c>
+      <c r="H18" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>20230008</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>4010</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>20190430</v>
+      </c>
+      <c r="H19" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>20230008</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>4010</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>20190430</v>
+      </c>
+      <c r="H20" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/public/ExamplesImportacion/Dpagos.xlsx
+++ b/public/ExamplesImportacion/Dpagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365DD9AF-22B9-4F47-8314-9115204A5FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA49BED-AA69-4E82-A858-FC03C0990558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>BOL</t>
   </si>
@@ -42,9 +42,6 @@
     <t>DNI</t>
   </si>
   <si>
-    <t>EFE</t>
-  </si>
-  <si>
     <t>NUMIDE(NUM, 11)</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
   </si>
   <si>
     <t>LET</t>
+  </si>
+  <si>
+    <t>EFECTIVO</t>
+  </si>
+  <si>
+    <t>CHEQUE</t>
+  </si>
+  <si>
+    <t>DEPOSITO</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C13:C18"/>
+      <selection activeCell="E14" sqref="E14:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,28 +489,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -518,7 +527,7 @@
         <v>3001</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -544,7 +553,7 @@
         <v>4001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -570,7 +579,7 @@
         <v>5001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -596,7 +605,7 @@
         <v>6001</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
@@ -622,7 +631,7 @@
         <v>7001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -648,7 +657,7 @@
         <v>3004</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>
@@ -674,7 +683,7 @@
         <v>4004</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
@@ -700,7 +709,7 @@
         <v>5004</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2">
         <v>8</v>
@@ -726,7 +735,7 @@
         <v>6004</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2">
         <v>9</v>
@@ -752,7 +761,7 @@
         <v>6004</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -778,7 +787,7 @@
         <v>3005</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2">
         <v>11</v>
@@ -798,13 +807,13 @@
         <v>20230006</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <v>4005</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2">
         <v>12</v>
@@ -824,13 +833,13 @@
         <v>20230006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>5005</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
         <v>13</v>
@@ -850,13 +859,13 @@
         <v>20230006</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>5005</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2">
         <v>14</v>
@@ -876,13 +885,13 @@
         <v>20230006</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2">
         <v>5005</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2">
         <v>15</v>
@@ -902,13 +911,13 @@
         <v>20230008</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>3010</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2">
         <v>16</v>
@@ -928,13 +937,13 @@
         <v>20230008</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>4010</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2">
         <v>17</v>
@@ -954,13 +963,13 @@
         <v>20230008</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>4010</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2">
         <v>18</v>
@@ -980,13 +989,13 @@
         <v>20230008</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>4010</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2">
         <v>19</v>

--- a/public/ExamplesImportacion/Dpagos.xlsx
+++ b/public/ExamplesImportacion/Dpagos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA49BED-AA69-4E82-A858-FC03C0990558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22290" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="PAGOS" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
-  <si>
-    <t>BOL</t>
-  </si>
-  <si>
-    <t>FAC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>DNI</t>
   </si>
@@ -48,9 +41,6 @@
     <t>TIPIDE(CHAR,3)</t>
   </si>
   <si>
-    <t>TIPDOC(CHAR,15)</t>
-  </si>
-  <si>
     <t>NUMDOC(CHAR,15)</t>
   </si>
   <si>
@@ -64,9 +54,6 @@
   </si>
   <si>
     <t>FECHAPAGO(DATETIME)</t>
-  </si>
-  <si>
-    <t>LET</t>
   </si>
   <si>
     <t>EFECTIVO</t>
@@ -84,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
@@ -154,10 +141,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Comma" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Excel Built-in Comma" xfId="3"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,542 +455,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2BAD85-7FA0-4292-B5A7-AE54433724C7}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E20"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>20230001</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <v>3001</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
         <v>20190331</v>
       </c>
-      <c r="H2" s="3">
+      <c r="G2" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>20230001</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
         <v>4001</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
         <v>20190430</v>
       </c>
-      <c r="H3" s="3">
+      <c r="G3" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>20230001</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>5001</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
         <v>20190530</v>
       </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>20230001</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
         <v>6001</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
         <v>20190630</v>
       </c>
-      <c r="H5" s="3">
+      <c r="G5" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>20230001</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <v>7001</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
         <v>20190730</v>
       </c>
-      <c r="H6" s="3">
+      <c r="G6" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>20230002</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>3004</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <v>20190331</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>20230002</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>4004</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <v>20190430</v>
       </c>
-      <c r="H8" s="5">
+      <c r="G8" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>20230002</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>5004</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="F9">
         <v>20190530</v>
       </c>
-      <c r="H9" s="5">
+      <c r="G9" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>20230002</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>6004</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10">
         <v>20190630</v>
       </c>
-      <c r="H10" s="5">
+      <c r="G10" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>20230002</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>6004</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="F11">
         <v>20190630</v>
       </c>
-      <c r="H11" s="5">
+      <c r="G11" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2">
         <v>20230006</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
         <v>3005</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11</v>
       </c>
       <c r="F12" s="2">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2">
         <v>20190331</v>
       </c>
-      <c r="H12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
         <v>20230006</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2">
         <v>4005</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2">
         <v>20190430</v>
       </c>
-      <c r="H13" s="3">
+      <c r="G13" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>20230006</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2">
         <v>5005</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>13</v>
       </c>
       <c r="F14" s="2">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2">
         <v>20190530</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
         <v>20230006</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="2">
         <v>5005</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14</v>
       </c>
       <c r="F15" s="2">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2">
         <v>20190530</v>
       </c>
-      <c r="H15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
         <v>20230006</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="2">
         <v>5005</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
       </c>
       <c r="F16" s="2">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2">
         <v>20190530</v>
       </c>
-      <c r="H16" s="3">
+      <c r="G16" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>20230008</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>3010</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
         <v>16</v>
       </c>
-      <c r="G17">
+      <c r="F17">
         <v>20190331</v>
       </c>
-      <c r="H17" s="5">
+      <c r="G17" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>20230008</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>4010</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
         <v>17</v>
       </c>
-      <c r="G18">
+      <c r="F18">
         <v>20190430</v>
       </c>
-      <c r="H18" s="5">
+      <c r="G18" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>20230008</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>4010</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="F19">
         <v>20190430</v>
       </c>
-      <c r="H19" s="5">
+      <c r="G19" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>20230008</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>4010</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
         <v>19</v>
       </c>
-      <c r="G20">
+      <c r="F20">
         <v>20190430</v>
       </c>
-      <c r="H20" s="5">
+      <c r="G20" s="5">
         <v>100</v>
       </c>
     </row>

--- a/public/ExamplesImportacion/Dpagos.xlsx
+++ b/public/ExamplesImportacion/Dpagos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>DNI</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>TRANSFERENCIA</t>
+  </si>
+  <si>
+    <t>TIPDOC(CHAR,15)</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>FAC</t>
+  </si>
+  <si>
+    <t>LET</t>
   </si>
 </sst>
 </file>
@@ -456,24 +468,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -481,455 +494,515 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>20230001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>3001</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>20190331</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>20230001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>4001</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>20190430</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>20230001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
         <v>5001</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>20190530</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>20230001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
         <v>6001</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>20190630</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>20230001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
         <v>7001</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>20190730</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>20230002</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>3004</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>20190331</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>20230002</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
         <v>4004</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>20190430</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9">
         <v>20230002</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
         <v>5004</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>20190530</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>20230002</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
         <v>6004</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>20190630</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B11">
         <v>20230002</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
         <v>6004</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>20190630</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2">
         <v>20230006</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
         <v>3005</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>20190331</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2">
         <v>20230006</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
         <v>4005</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>20190430</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>20230006</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
         <v>5005</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>13</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>20190530</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2">
         <v>20230006</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
         <v>5005</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>20190530</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2">
         <v>20230006</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
         <v>5005</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>15</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>20190530</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B17">
         <v>20230008</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
         <v>3010</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>16</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>20190331</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B18">
         <v>20230008</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
         <v>4010</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>20190430</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B19">
         <v>20230008</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
         <v>4010</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>18</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>20190430</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B20">
         <v>20230008</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
         <v>4010</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>19</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>20190430</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>100</v>
       </c>
     </row>
